--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3244490.760012145</v>
+        <v>3242037.439059355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9373740.226162646</v>
+        <v>9373740.226162642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8137975.520363794</v>
+        <v>8137975.520363796</v>
       </c>
     </row>
     <row r="11">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>6.876045741711437</v>
@@ -1288,59 +1288,59 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C10" t="n">
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.334980354192922</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>47.31006526018495</v>
+        <v>192.1011956044353</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>173.0074566349074</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>209.3512583921601</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>204.3004649982279</v>
       </c>
       <c r="F17" t="n">
-        <v>131.5322121427087</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C19" t="n">
         <v>120.2716844800353</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U19" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X19" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>263.5929700538535</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>225.5225489625378</v>
       </c>
       <c r="G20" t="n">
         <v>363.9465890348609</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247731</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X22" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247752</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C25" t="n">
         <v>120.2716844800353</v>
@@ -2482,19 +2482,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X25" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492387</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>36.86810533549483</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492376</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>171.9731989154903</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8365024639167</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>217.7699787218735</v>
       </c>
       <c r="U34" t="n">
-        <v>209.3178662350855</v>
+        <v>284.4328676513172</v>
       </c>
       <c r="V34" t="n">
-        <v>250.3586727695323</v>
+        <v>245.2128516871829</v>
       </c>
       <c r="W34" t="n">
         <v>284.7440277822953</v>
@@ -3253,7 +3253,7 @@
         <v>223.9306848347415</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8056827977991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>222.3648638926762</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>91.42966577935242</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247758</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572838</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4908,25 +4908,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,43 +4969,43 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2022.911678795657</v>
+        <v>1655.288861588727</v>
       </c>
       <c r="C11" t="n">
-        <v>1701.398794803318</v>
+        <v>1333.775977596389</v>
       </c>
       <c r="D11" t="n">
-        <v>1390.582729144641</v>
+        <v>1022.959911937711</v>
       </c>
       <c r="E11" t="n">
-        <v>1052.24410949447</v>
+        <v>684.6212922875404</v>
       </c>
       <c r="F11" t="n">
-        <v>688.7078376529363</v>
+        <v>321.0850204460061</v>
       </c>
       <c r="G11" t="n">
         <v>321.0850204460061</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="I11" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J11" t="n">
-        <v>259.830183961872</v>
+        <v>427.2358329822251</v>
       </c>
       <c r="K11" t="n">
-        <v>593.6495576517185</v>
+        <v>761.0552066720716</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.683770900127</v>
+        <v>1212.08941992048</v>
       </c>
       <c r="M11" t="n">
-        <v>1578.215675572052</v>
+        <v>1745.621324592405</v>
       </c>
       <c r="N11" t="n">
-        <v>2124.994492630834</v>
+        <v>2292.400141651187</v>
       </c>
       <c r="O11" t="n">
-        <v>2627.966963510171</v>
+        <v>2795.372612530524</v>
       </c>
       <c r="P11" t="n">
-        <v>3240.249221829845</v>
+        <v>3190.146978887703</v>
       </c>
       <c r="Q11" t="n">
-        <v>3488.535583585527</v>
+        <v>3488.535583585528</v>
       </c>
       <c r="R11" t="n">
-        <v>3547.55265014233</v>
+        <v>3547.552650142331</v>
       </c>
       <c r="S11" t="n">
-        <v>3547.55265014233</v>
+        <v>3484.711614617499</v>
       </c>
       <c r="T11" t="n">
-        <v>3547.55265014233</v>
+        <v>3326.183499949794</v>
       </c>
       <c r="U11" t="n">
-        <v>3341.471806364239</v>
+        <v>3120.102656171704</v>
       </c>
       <c r="V11" t="n">
-        <v>3057.858551968742</v>
+        <v>2836.489401776207</v>
       </c>
       <c r="W11" t="n">
-        <v>2752.539529646701</v>
+        <v>2531.170379454166</v>
       </c>
       <c r="X11" t="n">
-        <v>2704.751584939444</v>
+        <v>2337.128767732514</v>
       </c>
       <c r="Y11" t="n">
-        <v>2362.061885911705</v>
+        <v>1994.439068704776</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>945.982791051772</v>
+        <v>945.9827910517718</v>
       </c>
       <c r="C12" t="n">
-        <v>771.529761770645</v>
+        <v>771.5297617706448</v>
       </c>
       <c r="D12" t="n">
-        <v>622.5953521093938</v>
+        <v>622.5953521093935</v>
       </c>
       <c r="E12" t="n">
-        <v>463.3578971039383</v>
+        <v>463.357897103938</v>
       </c>
       <c r="F12" t="n">
-        <v>316.8233391308233</v>
+        <v>316.823339130823</v>
       </c>
       <c r="G12" t="n">
-        <v>180.4602389634421</v>
+        <v>180.4602389634411</v>
       </c>
       <c r="H12" t="n">
-        <v>89.95834460130901</v>
+        <v>89.95834460130862</v>
       </c>
       <c r="I12" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J12" t="n">
-        <v>164.6283224934642</v>
+        <v>164.6283224934639</v>
       </c>
       <c r="K12" t="n">
-        <v>402.8925214738116</v>
+        <v>402.8925214738111</v>
       </c>
       <c r="L12" t="n">
-        <v>769.5906817864768</v>
+        <v>769.5906817864765</v>
       </c>
       <c r="M12" t="n">
-        <v>1216.867007008793</v>
+        <v>1216.867007008792</v>
       </c>
       <c r="N12" t="n">
         <v>1690.390050563247</v>
@@ -5139,7 +5139,7 @@
         <v>2411.850921457405</v>
       </c>
       <c r="Q12" t="n">
-        <v>2569.492479104005</v>
+        <v>2569.492479104004</v>
       </c>
       <c r="R12" t="n">
         <v>2569.34812569652</v>
@@ -5148,13 +5148,13 @@
         <v>2439.91023919</v>
       </c>
       <c r="T12" t="n">
-        <v>2247.267238867856</v>
+        <v>2247.267238867855</v>
       </c>
       <c r="U12" t="n">
         <v>2019.199392002271</v>
       </c>
       <c r="V12" t="n">
-        <v>1784.047283770529</v>
+        <v>1784.047283770528</v>
       </c>
       <c r="W12" t="n">
         <v>1529.809927042327</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.9051863759584</v>
+        <v>763.9051863759573</v>
       </c>
       <c r="C13" t="n">
-        <v>642.4186363961247</v>
+        <v>642.4186363961237</v>
       </c>
       <c r="D13" t="n">
-        <v>539.7516299318623</v>
+        <v>539.7516299318613</v>
       </c>
       <c r="E13" t="n">
-        <v>439.2881692975425</v>
+        <v>439.2881692975415</v>
       </c>
       <c r="F13" t="n">
-        <v>339.8478547477055</v>
+        <v>339.8478547477044</v>
       </c>
       <c r="G13" t="n">
-        <v>219.5946510704975</v>
+        <v>219.5946510704966</v>
       </c>
       <c r="H13" t="n">
-        <v>120.8270972364279</v>
+        <v>120.827097236428</v>
       </c>
       <c r="I13" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J13" t="n">
-        <v>162.5790707021889</v>
+        <v>162.5790707021888</v>
       </c>
       <c r="K13" t="n">
-        <v>413.0716389034719</v>
+        <v>413.0716389034715</v>
       </c>
       <c r="L13" t="n">
-        <v>776.1368226043749</v>
+        <v>776.1368226043739</v>
       </c>
       <c r="M13" t="n">
         <v>1166.79925345633</v>
       </c>
       <c r="N13" t="n">
-        <v>1554.713015414602</v>
+        <v>1554.713015414601</v>
       </c>
       <c r="O13" t="n">
-        <v>1900.547999587422</v>
+        <v>1900.547999587421</v>
       </c>
       <c r="P13" t="n">
-        <v>2179.660885273488</v>
+        <v>2179.660885273487</v>
       </c>
       <c r="Q13" t="n">
-        <v>2303.776566678409</v>
+        <v>2303.776566678408</v>
       </c>
       <c r="R13" t="n">
-        <v>2261.395742384011</v>
+        <v>2261.39574238401</v>
       </c>
       <c r="S13" t="n">
         <v>2117.15949115891</v>
       </c>
       <c r="T13" t="n">
-        <v>1942.84250867651</v>
+        <v>1942.842508676509</v>
       </c>
       <c r="U13" t="n">
-        <v>1701.189274750227</v>
+        <v>1701.189274750226</v>
       </c>
       <c r="V13" t="n">
-        <v>1493.954419492413</v>
+        <v>1493.954419492412</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.986882403526</v>
+        <v>1251.986882403525</v>
       </c>
       <c r="X13" t="n">
-        <v>1071.446964453582</v>
+        <v>1071.44696445358</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.1040182581248</v>
+        <v>898.1040182581237</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022.911678795657</v>
+        <v>1523.314347997373</v>
       </c>
       <c r="C14" t="n">
-        <v>1701.398794803319</v>
+        <v>1201.801464005034</v>
       </c>
       <c r="D14" t="n">
-        <v>1390.582729144641</v>
+        <v>1027.046457303107</v>
       </c>
       <c r="E14" t="n">
-        <v>1052.244109494471</v>
+        <v>688.7078376529364</v>
       </c>
       <c r="F14" t="n">
         <v>688.7078376529364</v>
       </c>
       <c r="G14" t="n">
-        <v>321.0850204460061</v>
+        <v>321.0850204460062</v>
       </c>
       <c r="H14" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="I14" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J14" t="n">
-        <v>412.2788202501147</v>
+        <v>259.8301839618721</v>
       </c>
       <c r="K14" t="n">
-        <v>746.0981939399612</v>
+        <v>593.6495576517186</v>
       </c>
       <c r="L14" t="n">
-        <v>1197.13240718837</v>
+        <v>1044.683770900127</v>
       </c>
       <c r="M14" t="n">
-        <v>1730.664311860295</v>
+        <v>1578.215675572052</v>
       </c>
       <c r="N14" t="n">
-        <v>2277.443128919077</v>
+        <v>2342.502384593331</v>
       </c>
       <c r="O14" t="n">
-        <v>2780.415599798414</v>
+        <v>2845.474855472668</v>
       </c>
       <c r="P14" t="n">
-        <v>3175.189966155592</v>
+        <v>3240.249221829846</v>
       </c>
       <c r="Q14" t="n">
-        <v>3423.476327911274</v>
+        <v>3488.535583585528</v>
       </c>
       <c r="R14" t="n">
-        <v>3547.55265014233</v>
+        <v>3547.552650142331</v>
       </c>
       <c r="S14" t="n">
-        <v>3547.55265014233</v>
+        <v>3484.711614617499</v>
       </c>
       <c r="T14" t="n">
-        <v>3547.55265014233</v>
+        <v>3326.183499949794</v>
       </c>
       <c r="U14" t="n">
-        <v>3547.55265014233</v>
+        <v>3120.102656171704</v>
       </c>
       <c r="V14" t="n">
-        <v>3336.086732574491</v>
+        <v>2836.489401776207</v>
       </c>
       <c r="W14" t="n">
-        <v>3030.76771025245</v>
+        <v>2531.170379454165</v>
       </c>
       <c r="X14" t="n">
-        <v>2704.751584939444</v>
+        <v>2205.154254141159</v>
       </c>
       <c r="Y14" t="n">
-        <v>2362.061885911706</v>
+        <v>1862.464555113421</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>945.9827910517719</v>
+        <v>945.9827910517718</v>
       </c>
       <c r="C15" t="n">
-        <v>771.5297617706449</v>
+        <v>771.5297617706448</v>
       </c>
       <c r="D15" t="n">
-        <v>622.5953521093936</v>
+        <v>622.5953521093935</v>
       </c>
       <c r="E15" t="n">
-        <v>463.3578971039381</v>
+        <v>463.357897103938</v>
       </c>
       <c r="F15" t="n">
         <v>316.823339130823</v>
@@ -5352,7 +5352,7 @@
         <v>89.95834460130862</v>
       </c>
       <c r="I15" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J15" t="n">
         <v>164.6283224934639</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.9051863759576</v>
+        <v>763.9051863759573</v>
       </c>
       <c r="C16" t="n">
-        <v>642.4186363961239</v>
+        <v>642.4186363961237</v>
       </c>
       <c r="D16" t="n">
-        <v>539.7516299318615</v>
+        <v>539.7516299318613</v>
       </c>
       <c r="E16" t="n">
-        <v>439.2881692975417</v>
+        <v>439.2881692975415</v>
       </c>
       <c r="F16" t="n">
-        <v>339.8478547477046</v>
+        <v>339.8478547477044</v>
       </c>
       <c r="G16" t="n">
-        <v>219.5946510704969</v>
+        <v>219.5946510704966</v>
       </c>
       <c r="H16" t="n">
-        <v>120.8270972364279</v>
+        <v>120.827097236428</v>
       </c>
       <c r="I16" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J16" t="n">
-        <v>162.5790707021883</v>
+        <v>162.5790707021888</v>
       </c>
       <c r="K16" t="n">
-        <v>413.0716389034714</v>
+        <v>413.0716389034717</v>
       </c>
       <c r="L16" t="n">
-        <v>776.1368226043742</v>
+        <v>776.1368226043745</v>
       </c>
       <c r="M16" t="n">
         <v>1166.79925345633</v>
@@ -5461,13 +5461,13 @@
         <v>2261.39574238401</v>
       </c>
       <c r="S16" t="n">
-        <v>2117.15949115891</v>
+        <v>2117.159491158909</v>
       </c>
       <c r="T16" t="n">
-        <v>1942.842508676509</v>
+        <v>1942.842508676508</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.189274750226</v>
+        <v>1701.189274750225</v>
       </c>
       <c r="V16" t="n">
         <v>1493.954419492412</v>
@@ -5476,10 +5476,10 @@
         <v>1251.986882403525</v>
       </c>
       <c r="X16" t="n">
-        <v>1071.446964453581</v>
+        <v>1071.44696445358</v>
       </c>
       <c r="Y16" t="n">
-        <v>898.1040182581239</v>
+        <v>898.1040182581237</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1792.236227300293</v>
+        <v>1523.314347997371</v>
       </c>
       <c r="C17" t="n">
-        <v>1470.723343307955</v>
+        <v>1201.801464005033</v>
       </c>
       <c r="D17" t="n">
-        <v>1159.907277649278</v>
+        <v>890.9853983463559</v>
       </c>
       <c r="E17" t="n">
-        <v>821.5686579991068</v>
+        <v>684.6212922875404</v>
       </c>
       <c r="F17" t="n">
-        <v>688.7078376529364</v>
+        <v>321.0850204460062</v>
       </c>
       <c r="G17" t="n">
-        <v>321.0850204460061</v>
+        <v>321.0850204460062</v>
       </c>
       <c r="H17" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J17" t="n">
-        <v>412.2788202501147</v>
+        <v>427.2358329822251</v>
       </c>
       <c r="K17" t="n">
-        <v>746.0981939399612</v>
+        <v>811.1574496142148</v>
       </c>
       <c r="L17" t="n">
-        <v>1197.13240718837</v>
+        <v>1262.191662862624</v>
       </c>
       <c r="M17" t="n">
-        <v>1730.664311860295</v>
+        <v>1795.723567534548</v>
       </c>
       <c r="N17" t="n">
-        <v>2277.443128919077</v>
+        <v>2342.502384593331</v>
       </c>
       <c r="O17" t="n">
-        <v>2780.415599798414</v>
+        <v>2845.474855472668</v>
       </c>
       <c r="P17" t="n">
-        <v>3175.189966155592</v>
+        <v>3240.249221829846</v>
       </c>
       <c r="Q17" t="n">
-        <v>3423.476327911274</v>
+        <v>3488.535583585528</v>
       </c>
       <c r="R17" t="n">
-        <v>3547.55265014233</v>
+        <v>3547.552650142331</v>
       </c>
       <c r="S17" t="n">
-        <v>3547.55265014233</v>
+        <v>3484.711614617499</v>
       </c>
       <c r="T17" t="n">
-        <v>3389.024535474625</v>
+        <v>3326.183499949794</v>
       </c>
       <c r="U17" t="n">
-        <v>3389.024535474625</v>
+        <v>3120.102656171704</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.411281079127</v>
+        <v>2836.489401776206</v>
       </c>
       <c r="W17" t="n">
-        <v>2800.092258757086</v>
+        <v>2531.170379454165</v>
       </c>
       <c r="X17" t="n">
-        <v>2474.076133444079</v>
+        <v>2205.154254141159</v>
       </c>
       <c r="Y17" t="n">
-        <v>2131.386434416341</v>
+        <v>1862.46455511342</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>945.9827910517719</v>
+        <v>945.9827910517718</v>
       </c>
       <c r="C18" t="n">
-        <v>771.5297617706449</v>
+        <v>771.5297617706448</v>
       </c>
       <c r="D18" t="n">
-        <v>622.5953521093936</v>
+        <v>622.5953521093935</v>
       </c>
       <c r="E18" t="n">
-        <v>463.3578971039381</v>
+        <v>463.357897103938</v>
       </c>
       <c r="F18" t="n">
         <v>316.823339130823</v>
@@ -5589,7 +5589,7 @@
         <v>89.95834460130862</v>
       </c>
       <c r="I18" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J18" t="n">
         <v>164.6283224934639</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.9051863759574</v>
+        <v>763.9051863759578</v>
       </c>
       <c r="C19" t="n">
-        <v>642.4186363961238</v>
+        <v>642.4186363961242</v>
       </c>
       <c r="D19" t="n">
-        <v>539.7516299318614</v>
+        <v>539.7516299318617</v>
       </c>
       <c r="E19" t="n">
-        <v>439.2881692975416</v>
+        <v>439.2881692975418</v>
       </c>
       <c r="F19" t="n">
-        <v>339.8478547477046</v>
+        <v>339.8478547477047</v>
       </c>
       <c r="G19" t="n">
         <v>219.5946510704969</v>
       </c>
       <c r="H19" t="n">
-        <v>120.8270972364279</v>
+        <v>120.827097236428</v>
       </c>
       <c r="I19" t="n">
-        <v>70.95105300284659</v>
+        <v>70.95105300284661</v>
       </c>
       <c r="J19" t="n">
         <v>162.5790707021888</v>
       </c>
       <c r="K19" t="n">
-        <v>413.0716389034717</v>
+        <v>413.0716389034718</v>
       </c>
       <c r="L19" t="n">
-        <v>776.1368226043746</v>
+        <v>776.1368226043745</v>
       </c>
       <c r="M19" t="n">
-        <v>1166.79925345633</v>
+        <v>1166.799253456331</v>
       </c>
       <c r="N19" t="n">
         <v>1554.713015414602</v>
@@ -5695,19 +5695,19 @@
         <v>2303.776566678409</v>
       </c>
       <c r="R19" t="n">
-        <v>2261.39574238401</v>
+        <v>2261.395742384011</v>
       </c>
       <c r="S19" t="n">
         <v>2117.15949115891</v>
       </c>
       <c r="T19" t="n">
-        <v>1942.842508676509</v>
+        <v>1942.84250867651</v>
       </c>
       <c r="U19" t="n">
         <v>1701.189274750226</v>
       </c>
       <c r="V19" t="n">
-        <v>1493.954419492412</v>
+        <v>1493.954419492413</v>
       </c>
       <c r="W19" t="n">
         <v>1251.986882403525</v>
@@ -5716,7 +5716,7 @@
         <v>1071.446964453581</v>
       </c>
       <c r="Y19" t="n">
-        <v>898.1040182581239</v>
+        <v>898.1040182581243</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1775.098683720277</v>
+        <v>1639.362966386357</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.585799727938</v>
+        <v>1317.850082394019</v>
       </c>
       <c r="D20" t="n">
-        <v>1142.769734069261</v>
+        <v>1007.034016735342</v>
       </c>
       <c r="E20" t="n">
-        <v>804.43111441909</v>
+        <v>668.695397085171</v>
       </c>
       <c r="F20" t="n">
-        <v>440.8948425775558</v>
+        <v>440.8948425775566</v>
       </c>
       <c r="G20" t="n">
-        <v>73.27202537062556</v>
+        <v>73.27202537062632</v>
       </c>
       <c r="H20" t="n">
-        <v>73.27202537062556</v>
+        <v>73.27202537062632</v>
       </c>
       <c r="I20" t="n">
-        <v>73.27202537062556</v>
+        <v>73.27202537062632</v>
       </c>
       <c r="J20" t="n">
-        <v>262.151156329651</v>
+        <v>262.1511563296518</v>
       </c>
       <c r="K20" t="n">
-        <v>595.9705300194976</v>
+        <v>595.9705300194983</v>
       </c>
       <c r="L20" t="n">
-        <v>1047.004743267906</v>
+        <v>1047.004743267907</v>
       </c>
       <c r="M20" t="n">
-        <v>1580.536647939831</v>
+        <v>1580.536647939832</v>
       </c>
       <c r="N20" t="n">
-        <v>2127.315464998613</v>
+        <v>2127.315464998614</v>
       </c>
       <c r="O20" t="n">
-        <v>2961.523473861615</v>
+        <v>2961.523473861653</v>
       </c>
       <c r="P20" t="n">
-        <v>3356.297840218793</v>
+        <v>3356.297840218831</v>
       </c>
       <c r="Q20" t="n">
-        <v>3604.584201974475</v>
+        <v>3604.584201974513</v>
       </c>
       <c r="R20" t="n">
-        <v>3663.601268531278</v>
+        <v>3663.601268531316</v>
       </c>
       <c r="S20" t="n">
-        <v>3663.601268531278</v>
+        <v>3600.760233006484</v>
       </c>
       <c r="T20" t="n">
-        <v>3505.073153863573</v>
+        <v>3442.232118338779</v>
       </c>
       <c r="U20" t="n">
-        <v>3298.992310085483</v>
+        <v>3236.151274560689</v>
       </c>
       <c r="V20" t="n">
-        <v>3015.379055689985</v>
+        <v>2952.538020165191</v>
       </c>
       <c r="W20" t="n">
-        <v>2710.060033367944</v>
+        <v>2647.218997843151</v>
       </c>
       <c r="X20" t="n">
-        <v>2384.043908054938</v>
+        <v>2321.202872530144</v>
       </c>
       <c r="Y20" t="n">
-        <v>2041.354209027199</v>
+        <v>1978.513173502406</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>948.3037634195508</v>
+        <v>948.3037634195514</v>
       </c>
       <c r="C21" t="n">
-        <v>773.8507341384238</v>
+        <v>773.8507341384244</v>
       </c>
       <c r="D21" t="n">
-        <v>624.9163244771726</v>
+        <v>624.9163244771731</v>
       </c>
       <c r="E21" t="n">
-        <v>465.678869471717</v>
+        <v>465.6788694717176</v>
       </c>
       <c r="F21" t="n">
-        <v>319.144311498602</v>
+        <v>319.1443114986026</v>
       </c>
       <c r="G21" t="n">
-        <v>182.7812113312201</v>
+        <v>182.7812113312207</v>
       </c>
       <c r="H21" t="n">
-        <v>92.2793169690876</v>
+        <v>92.27931696908826</v>
       </c>
       <c r="I21" t="n">
-        <v>73.27202537062556</v>
+        <v>73.27202537062632</v>
       </c>
       <c r="J21" t="n">
-        <v>166.9492948612429</v>
+        <v>166.9492948612437</v>
       </c>
       <c r="K21" t="n">
-        <v>405.21349384159</v>
+        <v>405.2134938415908</v>
       </c>
       <c r="L21" t="n">
-        <v>771.9116541542554</v>
+        <v>771.9116541542562</v>
       </c>
       <c r="M21" t="n">
-        <v>1219.187979376571</v>
+        <v>1219.187979376572</v>
       </c>
       <c r="N21" t="n">
         <v>1692.711022931026</v>
@@ -5853,22 +5853,22 @@
         <v>2571.813451471784</v>
       </c>
       <c r="R21" t="n">
-        <v>2571.669098064298</v>
+        <v>2571.669098064299</v>
       </c>
       <c r="S21" t="n">
-        <v>2442.231211557778</v>
+        <v>2442.231211557779</v>
       </c>
       <c r="T21" t="n">
-        <v>2249.588211235634</v>
+        <v>2249.588211235635</v>
       </c>
       <c r="U21" t="n">
         <v>2021.52036437005</v>
       </c>
       <c r="V21" t="n">
-        <v>1786.368256138307</v>
+        <v>1786.368256138308</v>
       </c>
       <c r="W21" t="n">
-        <v>1532.130899410105</v>
+        <v>1532.130899410106</v>
       </c>
       <c r="X21" t="n">
         <v>1324.279399204573</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>766.2261587437365</v>
+        <v>766.2261587437375</v>
       </c>
       <c r="C22" t="n">
-        <v>644.7396087639029</v>
+        <v>644.7396087639039</v>
       </c>
       <c r="D22" t="n">
-        <v>542.0726022996405</v>
+        <v>542.0726022996414</v>
       </c>
       <c r="E22" t="n">
-        <v>441.6091416653206</v>
+        <v>441.6091416653215</v>
       </c>
       <c r="F22" t="n">
-        <v>342.1688271154836</v>
+        <v>342.1688271154844</v>
       </c>
       <c r="G22" t="n">
-        <v>221.9156234382758</v>
+        <v>221.9156234382767</v>
       </c>
       <c r="H22" t="n">
-        <v>123.1480696042069</v>
+        <v>123.1480696042077</v>
       </c>
       <c r="I22" t="n">
-        <v>73.27202537062556</v>
+        <v>73.27202537062632</v>
       </c>
       <c r="J22" t="n">
-        <v>164.9000430699678</v>
+        <v>164.9000430699684</v>
       </c>
       <c r="K22" t="n">
-        <v>415.3926112712508</v>
+        <v>415.3926112712514</v>
       </c>
       <c r="L22" t="n">
-        <v>778.4577949721534</v>
+        <v>778.4577949721541</v>
       </c>
       <c r="M22" t="n">
-        <v>1169.120225824109</v>
+        <v>1169.12022582411</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.03398778238</v>
+        <v>1557.033987782381</v>
       </c>
       <c r="O22" t="n">
-        <v>1902.8689719552</v>
+        <v>1902.868971955201</v>
       </c>
       <c r="P22" t="n">
-        <v>2181.981857641266</v>
+        <v>2181.981857641267</v>
       </c>
       <c r="Q22" t="n">
-        <v>2306.097539046188</v>
+        <v>2306.097539046189</v>
       </c>
       <c r="R22" t="n">
-        <v>2263.716714751789</v>
+        <v>2263.71671475179</v>
       </c>
       <c r="S22" t="n">
         <v>2119.480463526689</v>
       </c>
       <c r="T22" t="n">
-        <v>1945.163481044288</v>
+        <v>1945.163481044289</v>
       </c>
       <c r="U22" t="n">
-        <v>1703.510247118005</v>
+        <v>1703.510247118006</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.275391860191</v>
+        <v>1496.275391860192</v>
       </c>
       <c r="W22" t="n">
-        <v>1254.307854771304</v>
+        <v>1254.307854771305</v>
       </c>
       <c r="X22" t="n">
-        <v>1073.76793682136</v>
+        <v>1073.767936821361</v>
       </c>
       <c r="Y22" t="n">
-        <v>900.4249906259029</v>
+        <v>900.424990625904</v>
       </c>
     </row>
     <row r="23">
@@ -5966,55 +5966,55 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L23" t="n">
-        <v>1543.189242259776</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M23" t="n">
-        <v>2076.7211469317</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N23" t="n">
-        <v>2623.499963990483</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O23" t="n">
-        <v>3126.47243486982</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P23" t="n">
-        <v>3521.246801226998</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
         <v>3835.976694641922</v>
@@ -6023,16 +6023,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X23" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
@@ -6151,7 +6151,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6160,37 +6160,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.715908442899</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>3163.468180669545</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3666.440651548882</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679679</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,13 +6294,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839444</v>
+        <v>399.0634049978497</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839444</v>
+        <v>230.1272220699428</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839444</v>
+        <v>230.1272220699428</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839444</v>
+        <v>230.1272220699428</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.6836668953299</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783407</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413801</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433628</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998327</v>
+        <v>399.0634049978497</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6458,49 +6458,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6640,10 +6640,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
         <v>1674.827124689058</v>
@@ -6658,13 +6658,13 @@
         <v>909.2731541783405</v>
       </c>
       <c r="W31" t="n">
-        <v>619.85598414138</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433626</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998325</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,58 +6674,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2361.087693354001</v>
+        <v>2361.087693354002</v>
       </c>
       <c r="C32" t="n">
-        <v>1993.922116367423</v>
+        <v>1993.922116367424</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.453357714507</v>
+        <v>1637.453357714508</v>
       </c>
       <c r="E32" t="n">
         <v>1253.462045070097</v>
       </c>
       <c r="F32" t="n">
-        <v>844.2730802343231</v>
+        <v>844.2730802343237</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9975700331536</v>
+        <v>430.9975700331543</v>
       </c>
       <c r="H32" t="n">
         <v>135.2109095957548</v>
       </c>
       <c r="I32" t="n">
-        <v>95.01095078905747</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="J32" t="n">
-        <v>451.2957307684359</v>
+        <v>283.8900817480829</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.019062903735</v>
+        <v>938.6134138833825</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.053276152144</v>
+        <v>1389.647627131791</v>
       </c>
       <c r="M32" t="n">
-        <v>2090.585180824069</v>
+        <v>1971.913184159902</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.363997882851</v>
+        <v>2951.665456386549</v>
       </c>
       <c r="O32" t="n">
-        <v>3454.637927265885</v>
+        <v>3454.637927265886</v>
       </c>
       <c r="P32" t="n">
-        <v>4167.993014712831</v>
+        <v>4167.993014712832</v>
       </c>
       <c r="Q32" t="n">
-        <v>4626.471217221819</v>
+        <v>4626.47121722182</v>
       </c>
       <c r="R32" t="n">
-        <v>4750.547539452874</v>
+        <v>4750.547539452875</v>
       </c>
       <c r="S32" t="n">
-        <v>4642.053810933803</v>
+        <v>4642.053810933804</v>
       </c>
       <c r="T32" t="n">
         <v>4437.873003271859</v>
@@ -6734,16 +6734,16 @@
         <v>4186.13946649953</v>
       </c>
       <c r="V32" t="n">
-        <v>3856.873519109793</v>
+        <v>3856.873519109794</v>
       </c>
       <c r="W32" t="n">
-        <v>3505.901803793513</v>
+        <v>3505.901803793514</v>
       </c>
       <c r="X32" t="n">
-        <v>3134.232985486267</v>
+        <v>3134.232985486268</v>
       </c>
       <c r="Y32" t="n">
-        <v>2745.890593464289</v>
+        <v>2745.89059346429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.0426888379826</v>
+        <v>970.0426888379827</v>
       </c>
       <c r="C33" t="n">
-        <v>795.5896595568556</v>
+        <v>795.5896595568557</v>
       </c>
       <c r="D33" t="n">
-        <v>646.6552498956044</v>
+        <v>646.6552498956045</v>
       </c>
       <c r="E33" t="n">
-        <v>487.4177948901489</v>
+        <v>487.417794890149</v>
       </c>
       <c r="F33" t="n">
-        <v>340.8832369170339</v>
+        <v>340.883236917034</v>
       </c>
       <c r="G33" t="n">
-        <v>204.520136749652</v>
+        <v>204.5201367496521</v>
       </c>
       <c r="H33" t="n">
-        <v>114.0182423875195</v>
+        <v>114.0182423875196</v>
       </c>
       <c r="I33" t="n">
-        <v>95.01095078905747</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="J33" t="n">
-        <v>188.6882202796748</v>
+        <v>188.6882202796749</v>
       </c>
       <c r="K33" t="n">
-        <v>426.9524192600219</v>
+        <v>426.952419260022</v>
       </c>
       <c r="L33" t="n">
         <v>793.6505795726873</v>
@@ -6801,10 +6801,10 @@
         <v>2593.552376890215</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.40802348273</v>
+        <v>2593.408023482731</v>
       </c>
       <c r="S33" t="n">
-        <v>2463.97013697621</v>
+        <v>2463.970136976211</v>
       </c>
       <c r="T33" t="n">
         <v>2271.327136654066</v>
@@ -6816,10 +6816,10 @@
         <v>1808.107181556739</v>
       </c>
       <c r="W33" t="n">
-        <v>1553.869824828537</v>
+        <v>1553.869824828538</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.018324623004</v>
+        <v>1346.018324623005</v>
       </c>
       <c r="Y33" t="n">
         <v>1138.258025858051</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.01095078905747</v>
+        <v>243.3306502475592</v>
       </c>
       <c r="C34" t="n">
-        <v>95.01095078905747</v>
+        <v>243.3306502475592</v>
       </c>
       <c r="D34" t="n">
-        <v>95.01095078905747</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="E34" t="n">
-        <v>95.01095078905747</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="F34" t="n">
-        <v>95.01095078905747</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="G34" t="n">
-        <v>95.01095078905747</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="H34" t="n">
-        <v>95.01095078905747</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="I34" t="n">
-        <v>95.01095078905747</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="J34" t="n">
         <v>141.8947640847458</v>
       </c>
       <c r="K34" t="n">
-        <v>347.6431278823748</v>
+        <v>347.6431278823747</v>
       </c>
       <c r="L34" t="n">
-        <v>665.9641071796236</v>
+        <v>665.9641071796235</v>
       </c>
       <c r="M34" t="n">
         <v>1011.882333627925</v>
       </c>
       <c r="N34" t="n">
-        <v>1355.051891182543</v>
+        <v>1355.051891182542</v>
       </c>
       <c r="O34" t="n">
         <v>1656.142670951709</v>
@@ -6889,19 +6889,19 @@
         <v>1471.99069225077</v>
       </c>
       <c r="U34" t="n">
-        <v>1260.558504134522</v>
+        <v>1184.684765330248</v>
       </c>
       <c r="V34" t="n">
-        <v>1007.670955882469</v>
+        <v>936.9950161512751</v>
       </c>
       <c r="W34" t="n">
-        <v>720.0507257993427</v>
+        <v>649.3747860681483</v>
       </c>
       <c r="X34" t="n">
-        <v>493.8581148551593</v>
+        <v>423.182175123965</v>
       </c>
       <c r="Y34" t="n">
-        <v>274.8624756654632</v>
+        <v>423.182175123965</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,28 +6935,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834459</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D36" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F36" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I36" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7078,31 +7078,31 @@
         <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973145</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7151,7 +7151,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7160,43 +7160,43 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7296,7 +7296,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,10 +7336,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
@@ -7424,16 +7424,16 @@
         <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P41" t="n">
-        <v>3518.923563871313</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7454,7 +7454,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.786570321721</v>
+        <v>1917.058924300515</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.273686329383</v>
+        <v>1595.546040308177</v>
       </c>
       <c r="D44" t="n">
-        <v>1398.457620670705</v>
+        <v>1284.729974649499</v>
       </c>
       <c r="E44" t="n">
-        <v>1060.119001020534</v>
+        <v>1060.119001020533</v>
       </c>
       <c r="F44" t="n">
-        <v>696.5827291790001</v>
+        <v>696.5827291789992</v>
       </c>
       <c r="G44" t="n">
-        <v>328.9599119720697</v>
+        <v>328.959911972069</v>
       </c>
       <c r="H44" t="n">
-        <v>78.82594452891021</v>
+        <v>78.82594452890946</v>
       </c>
       <c r="I44" t="n">
-        <v>78.82594452891021</v>
+        <v>78.82594452890946</v>
       </c>
       <c r="J44" t="n">
-        <v>435.1107245082887</v>
+        <v>267.7050754879349</v>
       </c>
       <c r="K44" t="n">
-        <v>768.9300981981352</v>
+        <v>601.5244491777814</v>
       </c>
       <c r="L44" t="n">
-        <v>1219.964311446544</v>
+        <v>1052.55866242619</v>
       </c>
       <c r="M44" t="n">
-        <v>1753.496216118469</v>
+        <v>2028.029725971445</v>
       </c>
       <c r="N44" t="n">
-        <v>2300.275033177251</v>
+        <v>2671.18770522222</v>
       </c>
       <c r="O44" t="n">
-        <v>2855.579455011827</v>
+        <v>3174.160176101557</v>
       </c>
       <c r="P44" t="n">
-        <v>3568.934542458773</v>
+        <v>3568.934542458735</v>
       </c>
       <c r="Q44" t="n">
-        <v>3817.220904214455</v>
+        <v>3817.220904214418</v>
       </c>
       <c r="R44" t="n">
-        <v>3941.297226445511</v>
+        <v>3941.297226445473</v>
       </c>
       <c r="S44" t="n">
-        <v>3878.456190920679</v>
+        <v>3878.456190920641</v>
       </c>
       <c r="T44" t="n">
-        <v>3719.928076252974</v>
+        <v>3719.928076252937</v>
       </c>
       <c r="U44" t="n">
-        <v>3627.574878496053</v>
+        <v>3513.847232474846</v>
       </c>
       <c r="V44" t="n">
-        <v>3343.961624100556</v>
+        <v>3230.233978079349</v>
       </c>
       <c r="W44" t="n">
-        <v>3038.642601778515</v>
+        <v>2924.914955757308</v>
       </c>
       <c r="X44" t="n">
-        <v>2712.626476465508</v>
+        <v>2598.898830444302</v>
       </c>
       <c r="Y44" t="n">
-        <v>2369.93677743777</v>
+        <v>2256.209131416564</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>953.8576825778354</v>
+        <v>953.8576825778348</v>
       </c>
       <c r="C45" t="n">
-        <v>779.4046532967084</v>
+        <v>779.4046532967078</v>
       </c>
       <c r="D45" t="n">
-        <v>630.4702436354571</v>
+        <v>630.4702436354565</v>
       </c>
       <c r="E45" t="n">
-        <v>471.2327886300017</v>
+        <v>471.232788630001</v>
       </c>
       <c r="F45" t="n">
-        <v>324.6982306568866</v>
+        <v>324.698230656886</v>
       </c>
       <c r="G45" t="n">
-        <v>188.3351304895047</v>
+        <v>188.3351304895041</v>
       </c>
       <c r="H45" t="n">
-        <v>97.83323612737226</v>
+        <v>97.83323612737166</v>
       </c>
       <c r="I45" t="n">
-        <v>78.82594452891021</v>
+        <v>78.82594452890946</v>
       </c>
       <c r="J45" t="n">
-        <v>172.5032140195275</v>
+        <v>172.5032140195268</v>
       </c>
       <c r="K45" t="n">
-        <v>410.7674129998747</v>
+        <v>410.767412999874</v>
       </c>
       <c r="L45" t="n">
-        <v>777.4655733125401</v>
+        <v>777.4655733125394</v>
       </c>
       <c r="M45" t="n">
-        <v>1224.741898534856</v>
+        <v>1224.741898534855</v>
       </c>
       <c r="N45" t="n">
         <v>1698.26494208931</v>
@@ -7746,7 +7746,7 @@
         <v>2419.725812983468</v>
       </c>
       <c r="Q45" t="n">
-        <v>2577.367370630068</v>
+        <v>2577.367370630067</v>
       </c>
       <c r="R45" t="n">
         <v>2577.223017222583</v>
@@ -7755,13 +7755,13 @@
         <v>2447.785130716063</v>
       </c>
       <c r="T45" t="n">
-        <v>2255.142130393919</v>
+        <v>2255.142130393918</v>
       </c>
       <c r="U45" t="n">
         <v>2027.074283528334</v>
       </c>
       <c r="V45" t="n">
-        <v>1791.922175296592</v>
+        <v>1791.922175296591</v>
       </c>
       <c r="W45" t="n">
         <v>1537.68481856839</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.7800779020213</v>
+        <v>771.7800779020205</v>
       </c>
       <c r="C46" t="n">
-        <v>650.2935279221876</v>
+        <v>650.2935279221869</v>
       </c>
       <c r="D46" t="n">
-        <v>547.6265214579252</v>
+        <v>547.6265214579245</v>
       </c>
       <c r="E46" t="n">
-        <v>447.1630608236053</v>
+        <v>447.1630608236047</v>
       </c>
       <c r="F46" t="n">
-        <v>347.7227462737683</v>
+        <v>347.7227462737676</v>
       </c>
       <c r="G46" t="n">
-        <v>227.4695425965605</v>
+        <v>227.4695425965599</v>
       </c>
       <c r="H46" t="n">
-        <v>128.7019887624916</v>
+        <v>128.7019887624908</v>
       </c>
       <c r="I46" t="n">
-        <v>78.82594452891021</v>
+        <v>78.82594452890946</v>
       </c>
       <c r="J46" t="n">
-        <v>170.4539622282524</v>
+        <v>170.4539622282517</v>
       </c>
       <c r="K46" t="n">
-        <v>420.9465304295354</v>
+        <v>420.9465304295344</v>
       </c>
       <c r="L46" t="n">
-        <v>784.0117141304381</v>
+        <v>784.0117141304372</v>
       </c>
       <c r="M46" t="n">
-        <v>1174.674144982394</v>
+        <v>1174.674144982393</v>
       </c>
       <c r="N46" t="n">
-        <v>1562.587906940665</v>
+        <v>1562.587906940664</v>
       </c>
       <c r="O46" t="n">
-        <v>1908.422891113485</v>
+        <v>1908.422891113484</v>
       </c>
       <c r="P46" t="n">
-        <v>2187.535776799551</v>
+        <v>2187.53577679955</v>
       </c>
       <c r="Q46" t="n">
         <v>2311.651458204472</v>
       </c>
       <c r="R46" t="n">
-        <v>2269.270633910074</v>
+        <v>2269.270633910073</v>
       </c>
       <c r="S46" t="n">
         <v>2125.034382684973</v>
       </c>
       <c r="T46" t="n">
-        <v>1950.717400202573</v>
+        <v>1950.717400202572</v>
       </c>
       <c r="U46" t="n">
-        <v>1709.06416627629</v>
+        <v>1709.064166276289</v>
       </c>
       <c r="V46" t="n">
-        <v>1501.829311018476</v>
+        <v>1501.829311018475</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.861773929589</v>
+        <v>1259.861773929588</v>
       </c>
       <c r="X46" t="n">
-        <v>1079.321855979645</v>
+        <v>1079.321855979644</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.9789097841876</v>
+        <v>905.978909784187</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.6880767567238</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8617,13 +8617,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>219.7049413762579</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>50.60832620418503</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>153.9885215032754</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>219.7049413762587</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>153.9885215032754</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>50.60832620418506</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>334.581351498651</v>
+        <v>334.5813514986886</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>343.5485285966304</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.3902622431539</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>73.34731650832759</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>135.6385654278974</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>19.79750571619286</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>49.22591147089554</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>317.4762207108053</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>400.2032972882109</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.7369666428369</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>400.2032972882105</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>167.7369666428369</v>
+        <v>174.4519134245558</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>446.4031907811415</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>97.35268908282137</v>
       </c>
       <c r="O44" t="n">
-        <v>52.86055652044377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>-1.63424829224823e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>275.4458987996915</v>
+        <v>130.6547684554412</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>134.700448367183</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>71.42586345938223</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>130.6547684554414</v>
       </c>
       <c r="F17" t="n">
-        <v>228.3686969804102</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.16573499103447</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>134.3783601605811</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270134</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>108.5529426874364</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>53.73645647354681</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>165.4678505443322</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8365024639167</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>144.6549920922735</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>75.11500141623173</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>5.145821082349453</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>216.8056827977991</v>
       </c>
     </row>
     <row r="35">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>112.5903695609931</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>112.590369560957</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659539.1841685608</v>
+        <v>659539.1841685609</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659539.1841685608</v>
+        <v>659539.1841685609</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659539.1841685608</v>
+        <v>659539.1841685609</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670133.4505236387</v>
+        <v>670133.4505236421</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>706079.0307048885</v>
+        <v>706079.0307048886</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703861.8005903071</v>
+        <v>703861.8005903072</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>706079.0307048886</v>
+        <v>706079.0307048885</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695484.7643498105</v>
+        <v>695484.7643498072</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="D2" t="n">
-        <v>758843.1798091849</v>
+        <v>758843.1798091847</v>
       </c>
       <c r="E2" t="n">
-        <v>723046.1391724505</v>
+        <v>723046.1391724509</v>
       </c>
       <c r="F2" t="n">
-        <v>723046.1391724504</v>
+        <v>723046.1391724509</v>
       </c>
       <c r="G2" t="n">
-        <v>723046.1391724509</v>
+        <v>723046.1391724506</v>
       </c>
       <c r="H2" t="n">
-        <v>731336.1680832239</v>
+        <v>731336.1680832267</v>
       </c>
       <c r="I2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244614</v>
       </c>
       <c r="J2" t="n">
         <v>734601.305740919</v>
@@ -26341,19 +26341,19 @@
         <v>734601.305740919</v>
       </c>
       <c r="L2" t="n">
-        <v>735542.8539433553</v>
+        <v>735542.8539433554</v>
       </c>
       <c r="M2" t="n">
+        <v>759463.6371244614</v>
+      </c>
+      <c r="N2" t="n">
+        <v>759463.6371244615</v>
+      </c>
+      <c r="O2" t="n">
         <v>759463.6371244618</v>
       </c>
-      <c r="N2" t="n">
-        <v>759463.6371244614</v>
-      </c>
-      <c r="O2" t="n">
-        <v>759463.6371244616</v>
-      </c>
       <c r="P2" t="n">
-        <v>751173.6082136885</v>
+        <v>751173.6082136859</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7827.740419725924</v>
+        <v>7827.740419728433</v>
       </c>
       <c r="I3" t="n">
-        <v>26176.23786877949</v>
+        <v>26176.23786877701</v>
       </c>
       <c r="J3" t="n">
-        <v>47142.09215872972</v>
+        <v>47142.0921587296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>62532.93795530449</v>
       </c>
       <c r="F4" t="n">
-        <v>62532.93795530447</v>
+        <v>62532.93795530449</v>
       </c>
       <c r="G4" t="n">
-        <v>62532.93795530449</v>
+        <v>62532.9379553045</v>
       </c>
       <c r="H4" t="n">
-        <v>65747.11098468296</v>
+        <v>65747.110984684</v>
       </c>
       <c r="I4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120102</v>
       </c>
       <c r="J4" t="n">
-        <v>49388.53342030742</v>
+        <v>49388.5334203074</v>
       </c>
       <c r="K4" t="n">
-        <v>49388.53342030736</v>
+        <v>49388.53342030739</v>
       </c>
       <c r="L4" t="n">
-        <v>50424.48720748202</v>
+        <v>50424.48720748205</v>
       </c>
       <c r="M4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120104</v>
       </c>
       <c r="N4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120104</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120104</v>
       </c>
       <c r="P4" t="n">
-        <v>73438.39478182253</v>
+        <v>73438.39478182152</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>81629.08511548577</v>
+        <v>81629.08511548578</v>
       </c>
       <c r="F5" t="n">
-        <v>81629.08511548577</v>
+        <v>81629.08511548578</v>
       </c>
       <c r="G5" t="n">
-        <v>81629.08511548577</v>
+        <v>81629.08511548578</v>
       </c>
       <c r="H5" t="n">
-        <v>83393.02411499777</v>
+        <v>83393.02411499835</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96115.01094814666</v>
+        <v>96115.01094814668</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>87614.00267529412</v>
+        <v>87614.00267529355</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304055.2444237293</v>
+        <v>304050.830845861</v>
       </c>
       <c r="C6" t="n">
-        <v>304055.2444237291</v>
+        <v>304050.8308458609</v>
       </c>
       <c r="D6" t="n">
-        <v>302715.4893710984</v>
+        <v>302713.8124594354</v>
       </c>
       <c r="E6" t="n">
-        <v>-596978.1215880518</v>
+        <v>-597076.5472581921</v>
       </c>
       <c r="F6" t="n">
-        <v>578884.1161016601</v>
+        <v>578785.69043152</v>
       </c>
       <c r="G6" t="n">
-        <v>578884.1161016605</v>
+        <v>578785.6904315198</v>
       </c>
       <c r="H6" t="n">
-        <v>574368.2925638172</v>
+        <v>574292.2723772179</v>
       </c>
       <c r="I6" t="n">
-        <v>567256.889769675</v>
+        <v>567256.8897696773</v>
       </c>
       <c r="J6" t="n">
-        <v>541687.1619081681</v>
+        <v>541619.9664179425</v>
       </c>
       <c r="K6" t="n">
-        <v>588829.2540668981</v>
+        <v>588762.0585766722</v>
       </c>
       <c r="L6" t="n">
-        <v>587580.1793442901</v>
+        <v>587515.5285789358</v>
       </c>
       <c r="M6" t="n">
-        <v>381160.8140099393</v>
+        <v>381160.8140099387</v>
       </c>
       <c r="N6" t="n">
         <v>593433.1276384543</v>
@@ -26561,7 +26561,7 @@
         <v>593433.1276384545</v>
       </c>
       <c r="P6" t="n">
-        <v>590121.2107565717</v>
+        <v>590098.8052730282</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>1.778970554295643</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>886.8881625355824</v>
+        <v>886.8881625355826</v>
       </c>
       <c r="F4" t="n">
-        <v>886.8881625355824</v>
+        <v>886.8881625355826</v>
       </c>
       <c r="G4" t="n">
-        <v>886.8881625355824</v>
+        <v>886.8881625355826</v>
       </c>
       <c r="H4" t="n">
-        <v>915.9003171328194</v>
+        <v>915.9003171328289</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26817,7 +26817,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="L4" t="n">
-        <v>1187.636884863218</v>
+        <v>1187.636884863219</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>985.3243066113777</v>
+        <v>985.3243066113682</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>1.778970554295643</v>
       </c>
       <c r="M2" t="n">
-        <v>45.1961660642969</v>
+        <v>45.19616606429693</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>880.012116793871</v>
+        <v>880.0121167938712</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>29.01215459723702</v>
+        <v>29.01215459724632</v>
       </c>
       <c r="I4" t="n">
-        <v>98.43614407579503</v>
+        <v>98.43614407578571</v>
       </c>
       <c r="J4" t="n">
-        <v>180.1764693963161</v>
+        <v>180.1764693963156</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>880.012116793871</v>
+        <v>880.0121167938712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>29.01215459723702</v>
+        <v>29.01215459724632</v>
       </c>
     </row>
   </sheetData>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.892868265313084</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.2233538868258</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.8849609916754</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
         <v>244.8189374192082</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>143.0989822923762</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859212</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859335</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859239</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="26">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185922</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35425,10 +35425,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>618.4669275956297</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>301.4026310079045</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>344.775522471988</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>772.0067767891702</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165834</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>344.775522471988</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>387.7996127595856</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36048,7 +36048,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120772</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>842.6343523868701</v>
+        <v>842.6343523869077</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>895.8503640095419</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>416.1845670468734</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36525,13 +36525,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412332</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>625.6491519212391</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>534.4005516472693</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>475.387620108525</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>588.1470273011223</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>825.5292215990244</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>939.1244131184377</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5312714465564</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165843</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>939.1244131184372</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,10 +37707,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120761</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5312714465564</v>
+        <v>425.2462182282753</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165871</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38023,16 +38023,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>985.3243066113682</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>649.6545244957329</v>
       </c>
       <c r="O44" t="n">
-        <v>560.9135574086629</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
